--- a/mcmaster_excel/Metric_Alloy_Steel_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Metric_Alloy_Steel_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,84 +434,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MinimumThread Length</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FlangeDia., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Size,mm</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Drive</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -519,84 +495,72 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Black-Oxide Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Lg.,mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>MinimumThread Length</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>FlangeDia., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Size,mm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>150,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ISO 7380-2</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>92137A683</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$15.68</t>
+          <t>Pkg.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Black-Oxide Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -641,20 +605,24 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>92137A250</t>
+          <t>92137A683</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.17</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>$15.68</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -664,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -709,20 +677,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>92137A252</t>
+          <t>92137A250</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>13.69</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -732,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,15 +754,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>92137A254</t>
+          <t>92137A252</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.12</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -800,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -850,15 +826,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>92137A258</t>
+          <t>92137A254</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -868,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -913,20 +893,24 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>92137A262</t>
+          <t>92137A258</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -936,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -986,15 +970,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>92137A802</t>
+          <t>92137A262</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1004,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1054,15 +1042,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>92137A803</t>
+          <t>92137A802</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1072,21 +1064,69 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>92137A803</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1154,7 +1194,11 @@
           <t>10.34</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1222,7 +1266,11 @@
           <t>9.83</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1290,7 +1338,11 @@
           <t>10.63</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1358,7 +1410,11 @@
           <t>12.26</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1426,7 +1482,11 @@
           <t>12.40</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1494,7 +1554,11 @@
           <t>12.52</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1562,7 +1626,11 @@
           <t>15.49</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1630,7 +1698,11 @@
           <t>8.83</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1640,21 +1712,69 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>92137A681</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1664,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1679,12 +1799,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1714,15 +1834,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>92137A681</t>
+          <t>92137A412</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1732,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1782,15 +1906,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>92137A412</t>
+          <t>92137A414</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1800,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1850,15 +1978,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>92137A414</t>
+          <t>92137A416</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1868,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1918,15 +2050,19 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>92137A416</t>
+          <t>92137A420</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -1936,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1986,15 +2122,19 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>92137A420</t>
+          <t>92137A424</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>10.24</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2004,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2054,15 +2194,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>92137A424</t>
+          <t>92137A429</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr"/>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2072,65 +2216,69 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>92137A429</t>
+          <t>92137A684</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2140,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2155,12 +2303,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2185,20 +2333,24 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>92137A684</t>
+          <t>92137A804</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>14.08</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2208,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2223,12 +2375,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2238,7 +2390,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2253,20 +2405,24 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>92137A804</t>
+          <t>92137A682</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2276,21 +2432,69 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>92137A523</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2300,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2350,15 +2554,19 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>92137A682</t>
+          <t>92137A525</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr"/>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2368,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2418,15 +2626,19 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>92137A523</t>
+          <t>92137A527</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2436,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2486,15 +2698,19 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>92137A525</t>
+          <t>92137A531</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr"/>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2504,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2554,15 +2770,19 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>92137A527</t>
+          <t>92137A535</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>10.89</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr"/>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2572,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2622,15 +2842,19 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>92137A531</t>
+          <t>92137A540</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>12.12</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr"/>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2640,7 +2864,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2690,15 +2914,19 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>92137A535</t>
+          <t>92137A545</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>15.90</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2708,65 +2936,69 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>92137A540</t>
+          <t>92137A550</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>13.93</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2776,7 +3008,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2826,15 +3058,19 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>92137A545</t>
+          <t>92137A555</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>16.30</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr"/>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2844,7 +3080,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2889,20 +3125,24 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>92137A550</t>
+          <t>92137A805</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>16.43</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2912,7 +3152,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2957,20 +3197,24 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>92137A555</t>
+          <t>92137A685</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>17.37</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -2980,7 +3224,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2995,12 +3239,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3010,7 +3254,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3025,20 +3269,24 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>92137A805</t>
+          <t>92137A634</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>12.48</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr"/>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3048,7 +3296,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3063,12 +3311,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3078,7 +3326,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3093,20 +3341,24 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>92137A685</t>
+          <t>92137A636</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr"/>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3116,21 +3368,69 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>92137A640</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3140,65 +3440,69 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>17.80</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>92137A634</t>
+          <t>92137A644</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>14.68</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3208,7 +3512,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3253,20 +3557,24 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>92137A636</t>
+          <t>92137A649</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>17.37</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3276,7 +3584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3321,20 +3629,24 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>92137A640</t>
+          <t>92137A654</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3344,7 +3656,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3389,20 +3701,24 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>92137A644</t>
+          <t>92137A659</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>12.23</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr"/>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3412,7 +3728,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3462,15 +3778,19 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>92137A649</t>
+          <t>92137A664</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3480,17 +3800,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>28 mm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3525,20 +3845,24 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>92137A654</t>
+          <t>92137A801</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3548,7 +3872,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3563,12 +3887,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3578,35 +3902,39 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>92137A659</t>
+          <t>92137A746</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3616,7 +3944,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3631,12 +3959,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3646,35 +3974,39 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>92137A664</t>
+          <t>92137A750</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>11.77</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3684,27 +4016,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>28 mm</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3714,7 +4046,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3734,15 +4066,19 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>92137A801</t>
+          <t>92137A686</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3752,21 +4088,69 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>92137A755</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
           <t>M10 × 1.5 mm</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3776,7 +4160,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3826,15 +4210,19 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>92137A746</t>
+          <t>92137A760</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>10.69</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr"/>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3844,7 +4232,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3889,20 +4277,24 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>92137A750</t>
+          <t>92137A806</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>10.96</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr"/>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3912,7 +4304,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3927,12 +4319,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3942,7 +4334,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8 mm</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3957,20 +4349,24 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>92137A686</t>
+          <t>92137A807</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>15.91</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -3980,7 +4376,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3995,12 +4391,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4010,7 +4406,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8 mm</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4025,20 +4421,24 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>92137A755</t>
+          <t>92137A808</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>11.77</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr"/>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>Black-Oxide Class 10.9 Alloy Steel</t>
@@ -4048,7 +4448,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4063,12 +4463,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4078,7 +4478,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4093,30 +4493,34 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>92137A760</t>
+          <t>96660A200</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>13.39</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr"/>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Black-Oxide Class 10.9 Alloy Steel</t>
+          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4131,12 +4535,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4146,7 +4550,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4161,54 +4565,106 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>92137A806</t>
+          <t>96660A201</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Black-Oxide Class 10.9 Alloy Steel</t>
+          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>M12 × 1.75 mm</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>96660A202</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Black-Oxide Class 10.9 Alloy Steel</t>
+          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4223,12 +4679,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4238,7 +4694,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>8 mm</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4253,112 +4709,168 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>92137A807</t>
+          <t>96660A203</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Black-Oxide Class 10.9 Alloy Steel</t>
+          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>8 mm</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>92137A808</t>
+          <t>96660A247</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Black-Oxide Class 10.9 Alloy Steel</t>
+          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>96660A248</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4383,12 +4895,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4398,7 +4910,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4418,15 +4930,19 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>96660A200</t>
+          <t>96660A204</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr"/>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4451,12 +4967,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4466,7 +4982,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4486,15 +5002,19 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>96660A201</t>
+          <t>96660A205</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr"/>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4519,12 +5039,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4534,7 +5054,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4554,15 +5074,19 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>96660A202</t>
+          <t>96660A206</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>13.09</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr"/>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4587,12 +5111,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4602,7 +5126,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4622,15 +5146,19 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>96660A203</t>
+          <t>96660A207</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>13.36</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr"/>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4655,12 +5183,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4670,7 +5198,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4690,15 +5218,19 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>96660A247</t>
+          <t>96660A208</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>16.41</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr"/>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4723,12 +5255,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4738,7 +5270,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4753,20 +5285,24 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>96660A248</t>
+          <t>96660A221</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>16.90</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4776,21 +5312,69 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Partially Threaded</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>20 mm</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>96660A222</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4800,17 +5384,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>20 mm</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4845,20 +5429,24 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>96660A204</t>
+          <t>96660A223</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>12.70</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr"/>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4883,12 +5471,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4898,7 +5486,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4918,15 +5506,19 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>96660A205</t>
+          <t>96660A209</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>10.90</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -4951,12 +5543,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4966,7 +5558,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4986,15 +5578,19 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>96660A206</t>
+          <t>96660A210</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>10.70</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr"/>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5019,12 +5615,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5034,7 +5630,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5054,15 +5650,19 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>96660A207</t>
+          <t>96660A211</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr"/>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5087,12 +5687,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5102,7 +5702,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5122,15 +5722,19 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>96660A208</t>
+          <t>96660A212</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>17.31</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5155,12 +5759,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5170,7 +5774,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5185,20 +5789,24 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>96660A221</t>
+          <t>96660A213</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5218,17 +5826,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>20 mm</t>
+          <t>22 mm</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5238,7 +5846,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5253,20 +5861,24 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>96660A222</t>
+          <t>96660A224</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr"/>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5286,17 +5898,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>20 mm</t>
+          <t>22 mm</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5306,7 +5918,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5321,20 +5933,24 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>96660A223</t>
+          <t>96660A225</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>16.80</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5344,21 +5960,69 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>96660A249</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5368,7 +6032,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5383,12 +6047,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5398,7 +6062,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5418,15 +6082,19 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>96660A209</t>
+          <t>96660A214</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr"/>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5436,7 +6104,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5451,12 +6119,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5466,7 +6134,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5486,15 +6154,19 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>96660A210</t>
+          <t>96660A215</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr"/>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5504,7 +6176,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5519,12 +6191,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5534,7 +6206,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5554,15 +6226,19 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>96660A211</t>
+          <t>96660A216</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5572,7 +6248,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5587,12 +6263,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5602,7 +6278,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5617,20 +6293,24 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>96660A212</t>
+          <t>96660A217</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>13.88</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5640,7 +6320,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5655,12 +6335,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5670,7 +6350,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5685,20 +6365,24 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>96660A213</t>
+          <t>96660A218</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5708,65 +6392,69 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Partially Threaded</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>24 mm</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Partially Threaded</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>22 mm</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>11.80</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>96660A224</t>
+          <t>96660A226</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr"/>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5776,27 +6464,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>22 mm</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5806,7 +6494,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5821,20 +6509,24 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>96660A225</t>
+          <t>96660A250</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5844,21 +6536,69 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Partially Threaded</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>24 mm</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>96660A227</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5868,17 +6608,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>24 mm</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5913,20 +6653,24 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>96660A249</t>
+          <t>96660A228</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>13.63</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -5936,7 +6680,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5981,20 +6725,24 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>96660A214</t>
+          <t>96660A251</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr"/>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6004,7 +6752,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6019,12 +6767,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6034,7 +6782,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6054,15 +6802,19 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>96660A215</t>
+          <t>96660A229</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>13.36</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr"/>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6072,7 +6824,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6087,12 +6839,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6102,7 +6854,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6122,15 +6874,19 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>96660A216</t>
+          <t>96660A230</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6140,7 +6896,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6155,12 +6911,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6170,7 +6926,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6185,20 +6941,24 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>96660A217</t>
+          <t>96660A231</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr"/>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6208,7 +6968,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6223,12 +6983,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6238,7 +6998,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6258,15 +7018,19 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>96660A218</t>
+          <t>96660A232</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>10.72</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr"/>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6276,27 +7040,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>24 mm</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6306,7 +7070,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6321,20 +7085,24 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>96660A226</t>
+          <t>96660A233</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr"/>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6344,27 +7112,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>28 mm</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6374,7 +7142,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6394,15 +7162,19 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>96660A250</t>
+          <t>96660A234</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>10.81</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr"/>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6412,7 +7184,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6422,55 +7194,59 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>24 mm</t>
+          <t>28 mm</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>96660A235</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
           <t>13.60</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>96660A227</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6480,7 +7256,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6490,17 +7266,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>24 mm</t>
+          <t>28 mm</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6510,7 +7286,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6530,15 +7306,19 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>96660A228</t>
+          <t>96660A236</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr"/>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6548,7 +7328,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6563,12 +7343,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6578,7 +7358,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6598,15 +7378,19 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>96660A251</t>
+          <t>96660A252</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>16.90</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr"/>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6616,21 +7400,69 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>96660A237</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6640,7 +7472,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6655,12 +7487,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6670,35 +7502,39 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>96660A229</t>
+          <t>96660A253</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6708,7 +7544,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6723,12 +7559,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6738,7 +7574,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6753,20 +7589,24 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>96660A230</t>
+          <t>96660A238</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6776,27 +7616,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>32 mm</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -6806,7 +7646,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -6821,20 +7661,24 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>96660A231</t>
+          <t>96660A239</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>17.00</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6844,27 +7688,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>32 mm</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6874,7 +7718,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -6894,15 +7738,19 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>96660A232</t>
+          <t>96660A240</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6912,7 +7760,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6927,12 +7775,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6942,35 +7790,39 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
+          <t>8 mm</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>96660A233</t>
+          <t>96660A241</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr"/>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -6980,27 +7832,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>28 mm</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7010,35 +7862,39 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
+          <t>8 mm</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>96660A234</t>
+          <t>96660A242</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>12.40</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr"/>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -7048,27 +7904,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>28 mm</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7078,35 +7934,39 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
+          <t>8 mm</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>96660A235</t>
+          <t>96660A243</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr"/>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="N106" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -7126,17 +7986,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>28 mm</t>
+          <t>36 mm</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7146,35 +8006,39 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
+          <t>8 mm</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>96660A236</t>
+          <t>96660A244</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr"/>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -7184,21 +8048,69 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Partially Threaded</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>36 mm</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>8 mm</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>150,000</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>ISO 7380-2</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>96660A245</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
@@ -7208,27 +8120,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>36 mm</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7238,7 +8150,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8 mm</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -7258,788 +8170,20 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>96660A252</t>
+          <t>96660A246</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>13.52</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>M12 × 1.75 mm</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>96660A237</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>14.40</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>96660A253</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>14.24</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>96660A238</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Partially Threaded</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>32 mm</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>96660A239</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>17.20</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Partially Threaded</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>32 mm</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>96660A240</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>17.60</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>M12 × 1.75 mm</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>8 mm</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>96660A241</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>13.20</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>8 mm</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>96660A242</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>13.60</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>8 mm</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>96660A243</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>14.40</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Partially Threaded</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>36 mm</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>8 mm</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>96660A244</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>14.80</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Partially Threaded</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>36 mm</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>8 mm</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>96660A245</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>15.20</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Class 10.9 Alloy Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Partially Threaded</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>36 mm</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>8 mm</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>150,000</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>ISO 7380-2</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>96660A246</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 10.9 Alloy Steel</t>
         </is>
